--- a/참고자료/2019-07-25 게시판.xlsx
+++ b/참고자료/2019-07-25 게시판.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="7380"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="7380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 명세서" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="103">
   <si>
     <t>테이블 이름</t>
   </si>
@@ -139,246 +139,275 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>관리자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0004</t>
+  </si>
+  <si>
+    <t>M0005</t>
+  </si>
+  <si>
+    <t>M0006</t>
+  </si>
+  <si>
+    <t>M0007</t>
+  </si>
+  <si>
+    <t>M0008</t>
+  </si>
+  <si>
+    <t>시스템보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원보기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판테이블</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_bbs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주게시판ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이어</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(10)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR(255)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_seq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_mainseq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_layer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_date</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_time</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_auth</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs_content</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(255)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BYTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBYTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBYTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GBYTE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일업로드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_bbs_file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEQ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_seq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_bbs_seq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본파일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장파일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_origin_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/system</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/member</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin/bbs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>member/login</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>membr/join</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨범</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/album</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbs/list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0003</t>
+  </si>
+  <si>
+    <t>M0009</t>
+  </si>
+  <si>
+    <t>M0010</t>
+  </si>
+  <si>
+    <t>M0005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0002</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>/</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/bbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0003</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M0004</t>
-  </si>
-  <si>
-    <t>M0005</t>
-  </si>
-  <si>
-    <t>M0006</t>
-  </si>
-  <si>
-    <t>M0007</t>
-  </si>
-  <si>
-    <t>M0008</t>
-  </si>
-  <si>
-    <t>시스템보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원보기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판관리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/system</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/member</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/admin/bbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/login</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/join</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판테이블</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_bbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시판ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>주게시판ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>레이어</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성일자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>INTEGER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(10)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR(255)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR(1000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_mainseq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_layer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_time</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_auth</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbs_content</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1000)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(255)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BYTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>KBYTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MBYTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GBYTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일업로드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_bbs_file</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_bbs_seq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>원본파일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장파일</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_origin_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>file_name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(1000)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1012,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:G30"/>
     </sheetView>
   </sheetViews>
@@ -1713,7 +1742,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -1908,19 +1937,19 @@
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -1929,19 +1958,19 @@
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B16" s="8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G16" s="9"/>
       <c r="H16" s="6"/>
@@ -1952,19 +1981,19 @@
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="6"/>
@@ -1976,13 +2005,13 @@
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B18" s="8"/>
       <c r="C18" s="11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F18" s="11" t="s">
         <v>25</v>
@@ -1997,16 +2026,16 @@
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="8"/>
       <c r="C19" s="11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="6"/>
@@ -2018,13 +2047,13 @@
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="8"/>
       <c r="C20" s="11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>27</v>
@@ -2039,16 +2068,16 @@
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="8"/>
       <c r="C21" s="11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -2060,16 +2089,16 @@
     <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="8"/>
       <c r="C22" s="13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G22" s="13"/>
       <c r="H22" s="13"/>
@@ -2143,19 +2172,19 @@
     <row r="27" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B27" s="5"/>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -2164,19 +2193,19 @@
     </row>
     <row r="28" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B28" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="6"/>
@@ -2187,19 +2216,19 @@
     </row>
     <row r="29" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B29" s="8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="6"/>
@@ -2211,16 +2240,16 @@
     <row r="30" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B30" s="8"/>
       <c r="C30" s="11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="6"/>
@@ -2317,10 +2346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2351,7 +2380,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2361,83 +2390,111 @@
       <c r="C3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>34</v>
+      <c r="D3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>37</v>
+        <v>93</v>
+      </c>
+      <c r="D4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>46</v>
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>47</v>
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>51</v>
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>52</v>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2461,16 +2518,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
